--- a/raw_data/umd/2023/RL_2023-07-24_MB5a.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-24_MB5a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_24_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EFDF7C2-C4B9-BA40-82DA-BC827F797FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9CC4E1-46ED-A246-B4C3-53E1CF1909FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{BA712231-FBDE-A544-A539-1CCF5A8191A6}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = MB5a</t>
-  </si>
-  <si>
-    <t>Location ID = 0625c6d0-ccb3-410b-9357-50e41be8d8e8</t>
-  </si>
-  <si>
-    <t>Latitude = 46.88833 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.0527833 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-24 11:06:10</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:00:52</t>
-  </si>
-  <si>
-    <t>Readings = 53</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -126,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -633,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1011,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE578A5-B9C9-724F-904A-C890A4BAE1FA}">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1037,3018 +994,2923 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45131.46261574074</v>
+      </c>
+      <c r="B2" s="3">
+        <v>66.27431</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.7208290000000002</v>
+      </c>
+      <c r="D2" s="3">
+        <v>79.297420000000002</v>
+      </c>
+      <c r="E2" s="3">
+        <v>84.575280000000006</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.9347149999999997E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99785239999999997</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5.4973929999999997E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.52470629999999996</v>
+      </c>
+      <c r="J2" s="3">
+        <v>21.7834</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.11148470000000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.88450359999999995</v>
+      </c>
+      <c r="M2" s="3">
+        <v>8.8174050000000004E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.57880560000000003</v>
+      </c>
+      <c r="O2" s="3">
+        <v>996.25130000000001</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45131.462627314817</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45.705750000000002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.6204229999999997</v>
+      </c>
+      <c r="D3" s="3">
+        <v>83.275329999999997</v>
+      </c>
+      <c r="E3" s="3">
+        <v>88.820369999999997</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.1359090000000001E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99786140000000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5.7733239999999998E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.52658579999999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>21.74877</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.1113792</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.88449630000000001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>8.8612220000000005E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.57668609999999998</v>
+      </c>
+      <c r="O3" s="3">
+        <v>996.24990000000003</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45131.462638888886</v>
+      </c>
+      <c r="B4" s="3">
+        <v>27.93027</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.6484750000000004</v>
+      </c>
+      <c r="D4" s="3">
+        <v>82.834180000000003</v>
+      </c>
+      <c r="E4" s="3">
+        <v>89.535650000000004</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.1729479999999999E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99794590000000005</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5.8198180000000002E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.58863109999999996</v>
+      </c>
+      <c r="J4" s="3">
+        <v>21.478729999999999</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.25012410000000002</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.200196</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.17693990000000001</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.55328319999999998</v>
+      </c>
+      <c r="O4" s="3">
+        <v>996.25019999999995</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45131.462650462963</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12.24056</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.6055460000000004</v>
+      </c>
+      <c r="D5" s="3">
+        <v>84.451880000000003</v>
+      </c>
+      <c r="E5" s="3">
+        <v>91.326970000000003</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.2590030000000001E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99795420000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5.9362529999999997E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.5920588</v>
+      </c>
+      <c r="J5" s="3">
+        <v>21.44969</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.25767200000000001</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.21753</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.18196380000000001</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.55125939999999995</v>
+      </c>
+      <c r="O5" s="3">
+        <v>996.24980000000005</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45131.46266203704</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.5626150000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>86.069590000000005</v>
+      </c>
+      <c r="E6" s="3">
+        <v>93.118269999999995</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.3450570000000001E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99796260000000003</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.0526879999999998E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.59548659999999998</v>
+      </c>
+      <c r="J6" s="3">
+        <v>21.420639999999999</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.26521990000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.234864</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.18698780000000001</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.54923549999999999</v>
+      </c>
+      <c r="O6" s="3">
+        <v>996.24929999999995</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45131.462673611109</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.6916980000000006</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.6986850000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>84.858080000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>91.508260000000007</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.2676560000000002E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99797860000000005</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5.9480369999999998E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.61700699999999997</v>
+      </c>
+      <c r="J7" s="3">
+        <v>21.320609999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.1708105</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.017007</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.12035</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.51016289999999997</v>
+      </c>
+      <c r="O7" s="3">
+        <v>996.26729999999998</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45131.462685185186</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.6923469999999998</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.7049880000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>84.851569999999995</v>
+      </c>
+      <c r="E8" s="3">
+        <v>91.511099999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.2677939999999998E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99798149999999997</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.9482220000000002E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.61962729999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>21.308430000000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.16884089999999999</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.012364</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.50747010000000004</v>
+      </c>
+      <c r="O8" s="3">
+        <v>996.26819999999998</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45131.462696759256</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.6929940000000006</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.71129</v>
+      </c>
+      <c r="D9" s="3">
+        <v>84.845050000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>91.513940000000005</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.2679330000000001E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99798450000000005</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5.9484059999999998E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.62224760000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>21.296240000000001</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.1668714</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.0077210000000001</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.11715</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.50477729999999998</v>
+      </c>
+      <c r="O9" s="3">
+        <v>996.26919999999996</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45131.462708333333</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9.7323470000000007</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.8352069999999996</v>
+      </c>
+      <c r="D10" s="3">
+        <v>85.216650000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>91.98733</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.2909030000000001E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99801839999999997</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5.7954890000000002E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.596225</v>
+      </c>
+      <c r="J10" s="3">
+        <v>21.165400000000002</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.59988</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4.3129860000000004</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1.1248279999999999</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.48920780000000003</v>
+      </c>
+      <c r="O10" s="3">
+        <v>996.2604</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45131.462719907409</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.7359080000000002</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.8441910000000004</v>
+      </c>
+      <c r="D11" s="3">
+        <v>85.240009999999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>92.010069999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.2920069999999998E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99802069999999998</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5.7870579999999998E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.5953676</v>
+      </c>
+      <c r="J11" s="3">
+        <v>21.155550000000002</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.6751259999999999</v>
+      </c>
+      <c r="L11" s="3">
+        <v>4.4865380000000004</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.1777310000000001</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.48743500000000001</v>
+      </c>
+      <c r="O11" s="3">
+        <v>996.2604</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45131.462731481479</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.7394680000000005</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.8531740000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>85.263369999999995</v>
+      </c>
+      <c r="E12" s="3">
+        <v>92.032820000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.2931110000000001E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99802310000000005</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5.7786270000000001E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.59451019999999999</v>
+      </c>
+      <c r="J12" s="3">
+        <v>21.145689999999998</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.750372</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4.6600910000000004</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.230634</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.48566229999999999</v>
+      </c>
+      <c r="O12" s="3">
+        <v>996.26030000000003</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45131.462743055556</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.5535139999999998</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5.0452870000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>85.017560000000003</v>
+      </c>
+      <c r="E13" s="3">
+        <v>92.296700000000001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.3058800000000001E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99805829999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5.9789910000000002E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.69439870000000004</v>
+      </c>
+      <c r="J13" s="3">
+        <v>21.03152</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2.2194440000000002</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.7453940000000001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.560425</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.48640450000000002</v>
+      </c>
+      <c r="O13" s="3">
+        <v>996.25990000000002</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.88569201</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.052303769999995</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45131.462754629632</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.5444370000000003</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5.0585589999999998</v>
+      </c>
+      <c r="D14" s="3">
+        <v>85.012739999999994</v>
+      </c>
+      <c r="E14" s="3">
+        <v>92.321770000000001</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.3070940000000002E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99806099999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5.9862569999999997E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.69921650000000002</v>
+      </c>
+      <c r="J14" s="3">
+        <v>21.02216</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2.277415</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5.879283</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.6011820000000001</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.48603869999999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>996.25969999999995</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.885689120000002</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.052317709999997</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45131.462766203702</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.535361</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5.0718310000000004</v>
+      </c>
+      <c r="D15" s="3">
+        <v>85.007919999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <v>92.346829999999997</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.3083089999999997E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.9980637</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5.9935219999999997E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.70403439999999995</v>
+      </c>
+      <c r="J15" s="3">
+        <v>21.012810000000002</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2.3353860000000002</v>
+      </c>
+      <c r="L15" s="3">
+        <v>6.0131740000000002</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.641939</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.48567290000000002</v>
+      </c>
+      <c r="O15" s="3">
+        <v>996.2595</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.885689120000002</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.052317709999997</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45131.462777777779</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9.7232470000000006</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5.161206</v>
+      </c>
+      <c r="D16" s="3">
+        <v>85.425349999999995</v>
+      </c>
+      <c r="E16" s="3">
+        <v>92.967399999999998</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.3384010000000001E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99808180000000002</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.0381020000000001E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.78358499999999998</v>
+      </c>
+      <c r="J16" s="3">
+        <v>20.77074</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2.6742330000000001</v>
+      </c>
+      <c r="L16" s="3">
+        <v>6.7943369999999996</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.8801730000000001</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.45442640000000001</v>
+      </c>
+      <c r="O16" s="3">
+        <v>996.27729999999997</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.885689120000002</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.052317709999997</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45131.462789351855</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.729025</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.1705160000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>85.442310000000006</v>
+      </c>
+      <c r="E17" s="3">
+        <v>93.006770000000003</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.34031E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99808370000000002</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.0448969999999998E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.79007640000000001</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20.755099999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.7043379999999999</v>
+      </c>
+      <c r="L17" s="3">
+        <v>6.8638320000000004</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.9013389999999999</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.45275159999999998</v>
+      </c>
+      <c r="O17" s="3">
+        <v>996.27819999999997</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.885689120000002</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.052317709999997</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45131.462800925925</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9.7348020000000002</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.1798250000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>85.459270000000004</v>
+      </c>
+      <c r="E18" s="3">
+        <v>93.046149999999997</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.3422189999999999E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99808540000000001</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.0516920000000002E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.79656780000000005</v>
+      </c>
+      <c r="J18" s="3">
+        <v>20.739460000000001</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.7344439999999999</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6.9333270000000002</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.9225049999999999</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.4510768</v>
+      </c>
+      <c r="O18" s="3">
+        <v>996.27909999999997</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.885689120000002</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.052317709999997</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45131.462812500002</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9.6028190000000002</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.5176939999999997</v>
+      </c>
+      <c r="D19" s="3">
+        <v>85.659769999999995</v>
+      </c>
+      <c r="E19" s="3">
+        <v>93.374660000000006</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.3581420000000003E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99811450000000002</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.0900210000000003E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.89476940000000005</v>
+      </c>
+      <c r="J19" s="3">
+        <v>20.67822</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3.819849</v>
+      </c>
+      <c r="L19" s="3">
+        <v>9.436515</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2.6856209999999998</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.44279020000000002</v>
+      </c>
+      <c r="O19" s="3">
+        <v>996.26149999999996</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.885699860000003</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.052320120000005</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45131.462824074071</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.5996450000000006</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5.5383190000000004</v>
+      </c>
+      <c r="D20" s="3">
+        <v>85.67989</v>
+      </c>
+      <c r="E20" s="3">
+        <v>93.406819999999996</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.359702E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99811649999999996</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.0932359999999998E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.90197349999999998</v>
+      </c>
+      <c r="J20" s="3">
+        <v>20.669319999999999</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3.8875679999999999</v>
+      </c>
+      <c r="L20" s="3">
+        <v>9.5926880000000008</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2.7332320000000001</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.44163720000000001</v>
+      </c>
+      <c r="O20" s="3">
+        <v>996.26089999999999</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.885699860000003</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.052320120000005</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45131.462835648148</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.5947689999999994</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.5680540000000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>86.317580000000007</v>
+      </c>
+      <c r="E21" s="3">
+        <v>94.358540000000005</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.4058340000000001E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99812959999999995</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6.1361529999999997E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.99782530000000003</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20.59543</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4.4243389999999998</v>
+      </c>
+      <c r="L21" s="3">
+        <v>10.833080000000001</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3.1106199999999999</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.4262608</v>
+      </c>
+      <c r="O21" s="3">
+        <v>996.24369999999999</v>
+      </c>
+      <c r="P21" s="3">
+        <v>46.885699860000003</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-91.052320120000005</v>
+      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45131.462847222225</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.591469</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.5771569999999997</v>
+      </c>
+      <c r="D22" s="3">
+        <v>86.357529999999997</v>
+      </c>
+      <c r="E22" s="3">
+        <v>94.419079999999994</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.4087689999999999E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.99813099999999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.1394749999999998E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.0053719999999999</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20.589970000000001</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4.4782739999999999</v>
+      </c>
+      <c r="L22" s="3">
+        <v>10.957610000000001</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3.1485400000000001</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.42522650000000001</v>
+      </c>
+      <c r="O22" s="3">
+        <v>996.2423</v>
+      </c>
+      <c r="P22" s="3">
+        <v>46.885699860000003</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-91.052320120000005</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45131.46261574074</v>
+        <v>45131.462858796294</v>
       </c>
       <c r="B23" s="3">
-        <v>66.27431</v>
+        <v>9.5881699999999999</v>
       </c>
       <c r="C23" s="3">
-        <v>4.7208290000000002</v>
+        <v>5.5862600000000002</v>
       </c>
       <c r="D23" s="3">
-        <v>79.297420000000002</v>
+        <v>86.397480000000002</v>
       </c>
       <c r="E23" s="3">
-        <v>84.575280000000006</v>
+        <v>94.479619999999997</v>
       </c>
       <c r="F23" s="3">
-        <v>3.9347149999999997E-2</v>
+        <v>4.4117030000000002E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99785239999999997</v>
+        <v>0.99813240000000003</v>
       </c>
       <c r="H23" s="3">
-        <v>5.4973929999999997E-2</v>
+        <v>6.1427969999999998E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.52470629999999996</v>
+        <v>1.0129189999999999</v>
       </c>
       <c r="J23" s="3">
-        <v>21.7834</v>
+        <v>20.584510000000002</v>
       </c>
       <c r="K23" s="3">
-        <v>0.11148470000000001</v>
+        <v>4.5322089999999999</v>
       </c>
       <c r="L23" s="3">
-        <v>0.88450359999999995</v>
+        <v>11.082140000000001</v>
       </c>
       <c r="M23" s="3">
-        <v>8.8174050000000004E-2</v>
+        <v>3.1864599999999998</v>
       </c>
       <c r="N23" s="3">
-        <v>0.57880560000000003</v>
+        <v>0.42419220000000002</v>
       </c>
       <c r="O23" s="3">
-        <v>996.25130000000001</v>
+        <v>996.24090000000001</v>
       </c>
       <c r="P23" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45131.462627314817</v>
+        <v>45131.462870370371</v>
       </c>
       <c r="B24" s="3">
-        <v>45.705750000000002</v>
+        <v>9.7076200000000004</v>
       </c>
       <c r="C24" s="3">
-        <v>4.6204229999999997</v>
+        <v>5.674474</v>
       </c>
       <c r="D24" s="3">
-        <v>83.275329999999997</v>
+        <v>86.438689999999994</v>
       </c>
       <c r="E24" s="3">
-        <v>88.820369999999997</v>
+        <v>94.666929999999994</v>
       </c>
       <c r="F24" s="3">
-        <v>4.1359090000000001E-2</v>
+        <v>4.4207629999999998E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99786140000000001</v>
+        <v>0.99814709999999995</v>
       </c>
       <c r="H24" s="3">
-        <v>5.7733239999999998E-2</v>
+        <v>6.1542630000000001E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0.52658579999999999</v>
+        <v>1.078983</v>
       </c>
       <c r="J24" s="3">
-        <v>21.74877</v>
+        <v>20.457370000000001</v>
       </c>
       <c r="K24" s="3">
-        <v>0.1113792</v>
+        <v>4.938771</v>
       </c>
       <c r="L24" s="3">
-        <v>0.88449630000000001</v>
+        <v>12.01881</v>
       </c>
       <c r="M24" s="3">
-        <v>8.8612220000000005E-2</v>
+        <v>3.4723009999999999</v>
       </c>
       <c r="N24" s="3">
-        <v>0.57668609999999998</v>
+        <v>0.41611090000000001</v>
       </c>
       <c r="O24" s="3">
-        <v>996.24990000000003</v>
+        <v>996.19830000000002</v>
       </c>
       <c r="P24" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45131.462638888886</v>
+        <v>45131.462881944448</v>
       </c>
       <c r="B25" s="3">
-        <v>27.93027</v>
+        <v>9.7143289999999993</v>
       </c>
       <c r="C25" s="3">
-        <v>4.6484750000000004</v>
+        <v>5.6799790000000003</v>
       </c>
       <c r="D25" s="3">
-        <v>82.834180000000003</v>
+        <v>86.455060000000003</v>
       </c>
       <c r="E25" s="3">
-        <v>89.535650000000004</v>
+        <v>94.698459999999997</v>
       </c>
       <c r="F25" s="3">
-        <v>4.1729479999999999E-2</v>
+        <v>4.4222900000000002E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99794590000000005</v>
+        <v>0.99814820000000004</v>
       </c>
       <c r="H25" s="3">
-        <v>5.8198180000000002E-2</v>
+        <v>6.1558429999999997E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>0.58863109999999996</v>
+        <v>1.084803</v>
       </c>
       <c r="J25" s="3">
-        <v>21.478729999999999</v>
+        <v>20.44857</v>
       </c>
       <c r="K25" s="3">
-        <v>0.25012410000000002</v>
+        <v>4.9732149999999997</v>
       </c>
       <c r="L25" s="3">
-        <v>1.200196</v>
+        <v>12.09825</v>
       </c>
       <c r="M25" s="3">
-        <v>0.17693990000000001</v>
+        <v>3.496518</v>
       </c>
       <c r="N25" s="3">
-        <v>0.55328319999999998</v>
+        <v>0.4153173</v>
       </c>
       <c r="O25" s="3">
-        <v>996.25019999999995</v>
+        <v>996.19550000000004</v>
       </c>
       <c r="P25" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q25" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45131.462650462963</v>
+        <v>45131.462893518517</v>
       </c>
       <c r="B26" s="3">
-        <v>12.24056</v>
+        <v>9.7210370000000008</v>
       </c>
       <c r="C26" s="3">
-        <v>4.6055460000000004</v>
+        <v>5.6854839999999998</v>
       </c>
       <c r="D26" s="3">
-        <v>84.451880000000003</v>
+        <v>86.471419999999995</v>
       </c>
       <c r="E26" s="3">
-        <v>91.326970000000003</v>
+        <v>94.73</v>
       </c>
       <c r="F26" s="3">
-        <v>4.2590030000000001E-2</v>
+        <v>4.4238180000000002E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99795420000000001</v>
+        <v>0.99814930000000002</v>
       </c>
       <c r="H26" s="3">
-        <v>5.9362529999999997E-2</v>
+        <v>6.1574240000000002E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>0.5920588</v>
+        <v>1.090624</v>
       </c>
       <c r="J26" s="3">
-        <v>21.44969</v>
+        <v>20.43976</v>
       </c>
       <c r="K26" s="3">
-        <v>0.25767200000000001</v>
+        <v>5.0076580000000002</v>
       </c>
       <c r="L26" s="3">
-        <v>1.21753</v>
+        <v>12.177680000000001</v>
       </c>
       <c r="M26" s="3">
-        <v>0.18196380000000001</v>
+        <v>3.520734</v>
       </c>
       <c r="N26" s="3">
-        <v>0.55125939999999995</v>
+        <v>0.41452369999999999</v>
       </c>
       <c r="O26" s="3">
-        <v>996.24980000000005</v>
+        <v>996.19269999999995</v>
       </c>
       <c r="P26" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q26" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45131.46266203704</v>
+        <v>45131.462905092594</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>9.5967450000000003</v>
       </c>
       <c r="C27" s="3">
-        <v>4.5626150000000001</v>
+        <v>5.7595869999999998</v>
       </c>
       <c r="D27" s="3">
-        <v>86.069590000000005</v>
+        <v>86.637280000000004</v>
       </c>
       <c r="E27" s="3">
-        <v>93.118269999999995</v>
+        <v>95.301100000000005</v>
       </c>
       <c r="F27" s="3">
-        <v>4.3450570000000001E-2</v>
+        <v>4.4514900000000003E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99796260000000003</v>
+        <v>0.99816579999999999</v>
       </c>
       <c r="H27" s="3">
-        <v>6.0526879999999998E-2</v>
+        <v>6.1945710000000001E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>0.59548659999999998</v>
+        <v>1.060098</v>
       </c>
       <c r="J27" s="3">
-        <v>21.420639999999999</v>
+        <v>20.407260000000001</v>
       </c>
       <c r="K27" s="3">
-        <v>0.26521990000000001</v>
+        <v>5.8861520000000001</v>
       </c>
       <c r="L27" s="3">
-        <v>1.234864</v>
+        <v>14.20007</v>
       </c>
       <c r="M27" s="3">
-        <v>0.18698780000000001</v>
+        <v>4.1383770000000002</v>
       </c>
       <c r="N27" s="3">
-        <v>0.54923549999999999</v>
+        <v>0.39912989999999998</v>
       </c>
       <c r="O27" s="3">
-        <v>996.24929999999995</v>
+        <v>996.25070000000005</v>
       </c>
       <c r="P27" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q27" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45131.462673611109</v>
+        <v>45131.462916666664</v>
       </c>
       <c r="B28" s="3">
-        <v>9.6916980000000006</v>
+        <v>9.5924840000000007</v>
       </c>
       <c r="C28" s="3">
-        <v>4.6986850000000002</v>
+        <v>5.7657569999999998</v>
       </c>
       <c r="D28" s="3">
-        <v>84.858080000000001</v>
+        <v>86.647090000000006</v>
       </c>
       <c r="E28" s="3">
-        <v>91.508260000000007</v>
+        <v>95.336759999999998</v>
       </c>
       <c r="F28" s="3">
-        <v>4.2676560000000002E-2</v>
+        <v>4.4532179999999998E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99797860000000005</v>
+        <v>0.99816700000000003</v>
       </c>
       <c r="H28" s="3">
-        <v>5.9480369999999998E-2</v>
+        <v>6.19689E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>0.61700699999999997</v>
+        <v>1.05983</v>
       </c>
       <c r="J28" s="3">
-        <v>21.320609999999999</v>
+        <v>20.40259</v>
       </c>
       <c r="K28" s="3">
-        <v>0.1708105</v>
+        <v>5.9443929999999998</v>
       </c>
       <c r="L28" s="3">
-        <v>1.017007</v>
+        <v>14.334160000000001</v>
       </c>
       <c r="M28" s="3">
-        <v>0.12035</v>
+        <v>4.1793240000000003</v>
       </c>
       <c r="N28" s="3">
-        <v>0.51016289999999997</v>
+        <v>0.39809250000000002</v>
       </c>
       <c r="O28" s="3">
-        <v>996.26729999999998</v>
+        <v>996.25300000000004</v>
       </c>
       <c r="P28" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q28" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45131.462685185186</v>
+        <v>45131.46292824074</v>
       </c>
       <c r="B29" s="3">
-        <v>9.6923469999999998</v>
+        <v>9.5882229999999993</v>
       </c>
       <c r="C29" s="3">
-        <v>4.7049880000000002</v>
+        <v>5.7719259999999997</v>
       </c>
       <c r="D29" s="3">
-        <v>84.851569999999995</v>
+        <v>86.656909999999996</v>
       </c>
       <c r="E29" s="3">
-        <v>91.511099999999999</v>
+        <v>95.372429999999994</v>
       </c>
       <c r="F29" s="3">
-        <v>4.2677939999999998E-2</v>
+        <v>4.4549449999999997E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99798149999999997</v>
+        <v>0.99816830000000001</v>
       </c>
       <c r="H29" s="3">
-        <v>5.9482220000000002E-2</v>
+        <v>6.1992079999999998E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>0.61962729999999999</v>
+        <v>1.0595619999999999</v>
       </c>
       <c r="J29" s="3">
-        <v>21.308430000000001</v>
+        <v>20.39791</v>
       </c>
       <c r="K29" s="3">
-        <v>0.16884089999999999</v>
+        <v>6.0026339999999996</v>
       </c>
       <c r="L29" s="3">
-        <v>1.012364</v>
+        <v>14.468249999999999</v>
       </c>
       <c r="M29" s="3">
-        <v>0.11874999999999999</v>
+        <v>4.2202719999999996</v>
       </c>
       <c r="N29" s="3">
-        <v>0.50747010000000004</v>
+        <v>0.3970552</v>
       </c>
       <c r="O29" s="3">
-        <v>996.26819999999998</v>
+        <v>996.25530000000003</v>
       </c>
       <c r="P29" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q29" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45131.462696759256</v>
+        <v>45131.462939814817</v>
       </c>
       <c r="B30" s="3">
-        <v>9.6929940000000006</v>
+        <v>9.5621679999999998</v>
       </c>
       <c r="C30" s="3">
-        <v>4.71129</v>
+        <v>5.9132800000000003</v>
       </c>
       <c r="D30" s="3">
-        <v>84.845050000000001</v>
+        <v>87.267930000000007</v>
       </c>
       <c r="E30" s="3">
-        <v>91.513940000000005</v>
+        <v>95.889080000000007</v>
       </c>
       <c r="F30" s="3">
-        <v>4.2679330000000001E-2</v>
+        <v>4.4799899999999997E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99798450000000005</v>
+        <v>0.99817650000000002</v>
       </c>
       <c r="H30" s="3">
-        <v>5.9484059999999998E-2</v>
+        <v>6.2327899999999999E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>0.62224760000000001</v>
+        <v>1.0531010000000001</v>
       </c>
       <c r="J30" s="3">
-        <v>21.296240000000001</v>
+        <v>20.351050000000001</v>
       </c>
       <c r="K30" s="3">
-        <v>0.1668714</v>
+        <v>6.463368</v>
       </c>
       <c r="L30" s="3">
-        <v>1.0077210000000001</v>
+        <v>15.536049999999999</v>
       </c>
       <c r="M30" s="3">
-        <v>0.11715</v>
+        <v>4.5442</v>
       </c>
       <c r="N30" s="3">
-        <v>0.50477729999999998</v>
+        <v>0.38900590000000002</v>
       </c>
       <c r="O30" s="3">
-        <v>996.26919999999996</v>
+        <v>996.24869999999999</v>
       </c>
       <c r="P30" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q30" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45131.462708333333</v>
+        <v>45131.462951388887</v>
       </c>
       <c r="B31" s="3">
-        <v>9.7323470000000007</v>
+        <v>9.5578679999999991</v>
       </c>
       <c r="C31" s="3">
-        <v>4.8352069999999996</v>
+        <v>5.9228730000000001</v>
       </c>
       <c r="D31" s="3">
-        <v>85.216650000000001</v>
+        <v>87.306079999999994</v>
       </c>
       <c r="E31" s="3">
-        <v>91.98733</v>
+        <v>95.930959999999999</v>
       </c>
       <c r="F31" s="3">
-        <v>4.2909030000000001E-2</v>
+        <v>4.4820199999999998E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99801839999999997</v>
+        <v>0.99817730000000005</v>
       </c>
       <c r="H31" s="3">
-        <v>5.7954890000000002E-2</v>
+        <v>6.235512E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>0.596225</v>
+        <v>1.0520309999999999</v>
       </c>
       <c r="J31" s="3">
-        <v>21.165400000000002</v>
+        <v>20.347719999999999</v>
       </c>
       <c r="K31" s="3">
-        <v>1.59988</v>
+        <v>6.5089009999999998</v>
       </c>
       <c r="L31" s="3">
-        <v>4.3129860000000004</v>
+        <v>15.64127</v>
       </c>
       <c r="M31" s="3">
-        <v>1.1248279999999999</v>
+        <v>4.5762130000000001</v>
       </c>
       <c r="N31" s="3">
-        <v>0.48920780000000003</v>
+        <v>0.38820949999999999</v>
       </c>
       <c r="O31" s="3">
-        <v>996.2604</v>
+        <v>996.24959999999999</v>
       </c>
       <c r="P31" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q31" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45131.462719907409</v>
+        <v>45131.462962962964</v>
       </c>
       <c r="B32" s="3">
-        <v>9.7359080000000002</v>
+        <v>9.5535669999999993</v>
       </c>
       <c r="C32" s="3">
-        <v>4.8441910000000004</v>
+        <v>5.9324659999999998</v>
       </c>
       <c r="D32" s="3">
-        <v>85.240009999999998</v>
+        <v>87.344229999999996</v>
       </c>
       <c r="E32" s="3">
-        <v>92.010069999999999</v>
+        <v>95.972849999999994</v>
       </c>
       <c r="F32" s="3">
-        <v>4.2920069999999998E-2</v>
+        <v>4.4840499999999998E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99802069999999998</v>
+        <v>0.99817809999999996</v>
       </c>
       <c r="H32" s="3">
-        <v>5.7870579999999998E-2</v>
+        <v>6.2382350000000003E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>0.5953676</v>
+        <v>1.050962</v>
       </c>
       <c r="J32" s="3">
-        <v>21.155550000000002</v>
+        <v>20.3444</v>
       </c>
       <c r="K32" s="3">
-        <v>1.6751259999999999</v>
+        <v>6.5544339999999996</v>
       </c>
       <c r="L32" s="3">
-        <v>4.4865380000000004</v>
+        <v>15.74649</v>
       </c>
       <c r="M32" s="3">
-        <v>1.1777310000000001</v>
+        <v>4.6082260000000002</v>
       </c>
       <c r="N32" s="3">
-        <v>0.48743500000000001</v>
+        <v>0.38741310000000001</v>
       </c>
       <c r="O32" s="3">
-        <v>996.2604</v>
+        <v>996.25049999999999</v>
       </c>
       <c r="P32" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q32" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45131.462731481479</v>
+        <v>45131.46297453704</v>
       </c>
       <c r="B33" s="3">
-        <v>9.7394680000000005</v>
+        <v>9.4812130000000003</v>
       </c>
       <c r="C33" s="3">
-        <v>4.8531740000000001</v>
+        <v>5.9975440000000004</v>
       </c>
       <c r="D33" s="3">
-        <v>85.263369999999995</v>
+        <v>87.635800000000003</v>
       </c>
       <c r="E33" s="3">
-        <v>92.032820000000001</v>
+        <v>96.374340000000004</v>
       </c>
       <c r="F33" s="3">
-        <v>4.2931110000000001E-2</v>
+        <v>4.503505E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99802310000000005</v>
+        <v>0.99818739999999995</v>
       </c>
       <c r="H33" s="3">
-        <v>5.7786270000000001E-2</v>
+        <v>6.2746150000000001E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>0.59451019999999999</v>
+        <v>1.059858</v>
       </c>
       <c r="J33" s="3">
-        <v>21.145689999999998</v>
+        <v>20.264289999999999</v>
       </c>
       <c r="K33" s="3">
-        <v>1.750372</v>
+        <v>7.6855320000000003</v>
       </c>
       <c r="L33" s="3">
-        <v>4.6600910000000004</v>
+        <v>18.35247</v>
       </c>
       <c r="M33" s="3">
-        <v>1.230634</v>
+        <v>5.403467</v>
       </c>
       <c r="N33" s="3">
-        <v>0.48566229999999999</v>
+        <v>0.37198019999999998</v>
       </c>
       <c r="O33" s="3">
-        <v>996.26030000000003</v>
+        <v>996.22450000000003</v>
       </c>
       <c r="P33" s="3">
-        <v>46.88569201</v>
+        <v>46.885699860000003</v>
       </c>
       <c r="Q33" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052320120000005</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45131.462743055556</v>
+        <v>45131.46298611111</v>
       </c>
       <c r="B34" s="3">
-        <v>9.5535139999999998</v>
+        <v>9.4766340000000007</v>
       </c>
       <c r="C34" s="3">
-        <v>5.0452870000000001</v>
+        <v>6.0043899999999999</v>
       </c>
       <c r="D34" s="3">
-        <v>85.017560000000003</v>
+        <v>87.665989999999994</v>
       </c>
       <c r="E34" s="3">
-        <v>92.296700000000001</v>
+        <v>96.408379999999994</v>
       </c>
       <c r="F34" s="3">
-        <v>4.3058800000000001E-2</v>
+        <v>4.5051540000000001E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99805829999999995</v>
+        <v>0.99818810000000002</v>
       </c>
       <c r="H34" s="3">
-        <v>5.9789910000000002E-2</v>
+        <v>6.277402E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>0.69439870000000004</v>
+        <v>1.0602259999999999</v>
       </c>
       <c r="J34" s="3">
-        <v>21.03152</v>
+        <v>20.25874</v>
       </c>
       <c r="K34" s="3">
-        <v>2.2194440000000002</v>
+        <v>7.7589550000000003</v>
       </c>
       <c r="L34" s="3">
-        <v>5.7453940000000001</v>
+        <v>18.52178</v>
       </c>
       <c r="M34" s="3">
-        <v>1.560425</v>
+        <v>5.4550890000000001</v>
       </c>
       <c r="N34" s="3">
-        <v>0.48640450000000002</v>
+        <v>0.37093920000000002</v>
       </c>
       <c r="O34" s="3">
-        <v>996.25990000000002</v>
+        <v>996.22280000000001</v>
       </c>
       <c r="P34" s="3">
-        <v>46.88569201</v>
+        <v>46.8857158</v>
       </c>
       <c r="Q34" s="3">
-        <v>-91.052303769999995</v>
+        <v>-91.052329159999999</v>
       </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45131.462754629632</v>
+        <v>45131.462997685187</v>
       </c>
       <c r="B35" s="3">
-        <v>9.5444370000000003</v>
+        <v>9.4720560000000003</v>
       </c>
       <c r="C35" s="3">
-        <v>5.0585589999999998</v>
+        <v>6.0112360000000002</v>
       </c>
       <c r="D35" s="3">
-        <v>85.012739999999994</v>
+        <v>87.696169999999995</v>
       </c>
       <c r="E35" s="3">
-        <v>92.321770000000001</v>
+        <v>96.442409999999995</v>
       </c>
       <c r="F35" s="3">
-        <v>4.3070940000000002E-2</v>
+        <v>4.5068030000000002E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99806099999999998</v>
+        <v>0.99818870000000004</v>
       </c>
       <c r="H35" s="3">
-        <v>5.9862569999999997E-2</v>
+        <v>6.2801889999999999E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>0.69921650000000002</v>
+        <v>1.0605929999999999</v>
       </c>
       <c r="J35" s="3">
-        <v>21.02216</v>
+        <v>20.25319</v>
       </c>
       <c r="K35" s="3">
-        <v>2.277415</v>
+        <v>7.8323770000000001</v>
       </c>
       <c r="L35" s="3">
-        <v>5.879283</v>
+        <v>18.691079999999999</v>
       </c>
       <c r="M35" s="3">
-        <v>1.6011820000000001</v>
+        <v>5.50671</v>
       </c>
       <c r="N35" s="3">
-        <v>0.48603869999999999</v>
+        <v>0.36989810000000001</v>
       </c>
       <c r="O35" s="3">
-        <v>996.25969999999995</v>
+        <v>996.22119999999995</v>
       </c>
       <c r="P35" s="3">
-        <v>46.885689120000002</v>
+        <v>46.8857158</v>
       </c>
       <c r="Q35" s="3">
-        <v>-91.052317709999997</v>
+        <v>-91.052329159999999</v>
       </c>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45131.462766203702</v>
+        <v>45131.463009259256</v>
       </c>
       <c r="B36" s="3">
-        <v>9.535361</v>
+        <v>9.5061009999999992</v>
       </c>
       <c r="C36" s="3">
-        <v>5.0718310000000004</v>
+        <v>5.9917360000000004</v>
       </c>
       <c r="D36" s="3">
-        <v>85.007919999999999</v>
+        <v>88.075760000000002</v>
       </c>
       <c r="E36" s="3">
-        <v>92.346829999999997</v>
+        <v>96.999080000000006</v>
       </c>
       <c r="F36" s="3">
-        <v>4.3083089999999997E-2</v>
+        <v>4.5337679999999998E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.9980637</v>
+        <v>0.99820299999999995</v>
       </c>
       <c r="H36" s="3">
-        <v>5.9935219999999997E-2</v>
+        <v>6.30637E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>0.70403439999999995</v>
+        <v>1.0947450000000001</v>
       </c>
       <c r="J36" s="3">
-        <v>21.012810000000002</v>
+        <v>20.212569999999999</v>
       </c>
       <c r="K36" s="3">
-        <v>2.3353860000000002</v>
+        <v>8.2378699999999991</v>
       </c>
       <c r="L36" s="3">
-        <v>6.0131740000000002</v>
+        <v>19.629460000000002</v>
       </c>
       <c r="M36" s="3">
-        <v>1.641939</v>
+        <v>5.7918000000000003</v>
       </c>
       <c r="N36" s="3">
-        <v>0.48567290000000002</v>
+        <v>0.37725439999999999</v>
       </c>
       <c r="O36" s="3">
-        <v>996.2595</v>
+        <v>996.21230000000003</v>
       </c>
       <c r="P36" s="3">
-        <v>46.885689120000002</v>
+        <v>46.8857158</v>
       </c>
       <c r="Q36" s="3">
-        <v>-91.052317709999997</v>
+        <v>-91.052329159999999</v>
       </c>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45131.462777777779</v>
+        <v>45131.463020833333</v>
       </c>
       <c r="B37" s="3">
-        <v>9.7232470000000006</v>
+        <v>9.506297</v>
       </c>
       <c r="C37" s="3">
-        <v>5.161206</v>
+        <v>5.9921480000000003</v>
       </c>
       <c r="D37" s="3">
-        <v>85.425349999999995</v>
+        <v>88.103099999999998</v>
       </c>
       <c r="E37" s="3">
-        <v>92.967399999999998</v>
+        <v>97.038659999999993</v>
       </c>
       <c r="F37" s="3">
-        <v>4.3384010000000001E-2</v>
+        <v>4.5356849999999997E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99808180000000002</v>
+        <v>0.99820399999999998</v>
       </c>
       <c r="H37" s="3">
-        <v>6.0381020000000001E-2</v>
+        <v>6.3086310000000007E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>0.78358499999999998</v>
+        <v>1.096811</v>
       </c>
       <c r="J37" s="3">
-        <v>20.77074</v>
+        <v>20.20853</v>
       </c>
       <c r="K37" s="3">
-        <v>2.6742330000000001</v>
+        <v>8.2858730000000005</v>
       </c>
       <c r="L37" s="3">
-        <v>6.7943369999999996</v>
+        <v>19.740279999999998</v>
       </c>
       <c r="M37" s="3">
-        <v>1.8801730000000001</v>
+        <v>5.8255489999999996</v>
       </c>
       <c r="N37" s="3">
-        <v>0.45442640000000001</v>
+        <v>0.37730330000000001</v>
       </c>
       <c r="O37" s="3">
-        <v>996.27729999999997</v>
+        <v>996.21119999999996</v>
       </c>
       <c r="P37" s="3">
-        <v>46.885689120000002</v>
+        <v>46.88572826</v>
       </c>
       <c r="Q37" s="3">
-        <v>-91.052317709999997</v>
+        <v>-91.052328759999995</v>
       </c>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45131.462789351855</v>
+        <v>45131.46303240741</v>
       </c>
       <c r="B38" s="3">
-        <v>9.729025</v>
+        <v>9.506494</v>
       </c>
       <c r="C38" s="3">
-        <v>5.1705160000000001</v>
+        <v>5.9925600000000001</v>
       </c>
       <c r="D38" s="3">
-        <v>85.442310000000006</v>
+        <v>88.130430000000004</v>
       </c>
       <c r="E38" s="3">
-        <v>93.006770000000003</v>
+        <v>97.078230000000005</v>
       </c>
       <c r="F38" s="3">
-        <v>4.34031E-2</v>
+        <v>4.5376029999999998E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99808370000000002</v>
+        <v>0.99820500000000001</v>
       </c>
       <c r="H38" s="3">
-        <v>6.0448969999999998E-2</v>
+        <v>6.3108910000000004E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>0.79007640000000001</v>
+        <v>1.098876</v>
       </c>
       <c r="J38" s="3">
-        <v>20.755099999999999</v>
+        <v>20.20448</v>
       </c>
       <c r="K38" s="3">
-        <v>2.7043379999999999</v>
+        <v>8.3338769999999993</v>
       </c>
       <c r="L38" s="3">
-        <v>6.8638320000000004</v>
+        <v>19.851099999999999</v>
       </c>
       <c r="M38" s="3">
-        <v>1.9013389999999999</v>
+        <v>5.8592979999999999</v>
       </c>
       <c r="N38" s="3">
-        <v>0.45275159999999998</v>
+        <v>0.37735220000000003</v>
       </c>
       <c r="O38" s="3">
-        <v>996.27819999999997</v>
+        <v>996.21010000000001</v>
       </c>
       <c r="P38" s="3">
-        <v>46.885689120000002</v>
+        <v>46.88572826</v>
       </c>
       <c r="Q38" s="3">
-        <v>-91.052317709999997</v>
+        <v>-91.052328759999995</v>
       </c>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45131.462800925925</v>
+        <v>45131.463043981479</v>
       </c>
       <c r="B39" s="3">
-        <v>9.7348020000000002</v>
+        <v>9.4658099999999994</v>
       </c>
       <c r="C39" s="3">
-        <v>5.1798250000000001</v>
+        <v>6.0941280000000004</v>
       </c>
       <c r="D39" s="3">
-        <v>85.459270000000004</v>
+        <v>88.451359999999994</v>
       </c>
       <c r="E39" s="3">
-        <v>93.046149999999997</v>
+        <v>97.495959999999997</v>
       </c>
       <c r="F39" s="3">
-        <v>4.3422189999999999E-2</v>
+        <v>4.5578460000000001E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99808540000000001</v>
+        <v>0.99821159999999998</v>
       </c>
       <c r="H39" s="3">
-        <v>6.0516920000000002E-2</v>
+        <v>6.337682E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>0.79656780000000005</v>
+        <v>1.09928</v>
       </c>
       <c r="J39" s="3">
-        <v>20.739460000000001</v>
+        <v>20.146699999999999</v>
       </c>
       <c r="K39" s="3">
-        <v>2.7344439999999999</v>
+        <v>8.7881750000000007</v>
       </c>
       <c r="L39" s="3">
-        <v>6.9333270000000002</v>
+        <v>20.899039999999999</v>
       </c>
       <c r="M39" s="3">
-        <v>1.9225049999999999</v>
+        <v>6.1787010000000002</v>
       </c>
       <c r="N39" s="3">
-        <v>0.4510768</v>
+        <v>0.35470649999999998</v>
       </c>
       <c r="O39" s="3">
-        <v>996.27909999999997</v>
+        <v>996.2441</v>
       </c>
       <c r="P39" s="3">
-        <v>46.885689120000002</v>
+        <v>46.88572826</v>
       </c>
       <c r="Q39" s="3">
-        <v>-91.052317709999997</v>
+        <v>-91.052328759999995</v>
       </c>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45131.462812500002</v>
+        <v>45131.463055555556</v>
       </c>
       <c r="B40" s="3">
-        <v>9.6028190000000002</v>
+        <v>9.4642999999999997</v>
       </c>
       <c r="C40" s="3">
-        <v>5.5176939999999997</v>
+        <v>6.0993510000000004</v>
       </c>
       <c r="D40" s="3">
-        <v>85.659769999999995</v>
+        <v>88.477490000000003</v>
       </c>
       <c r="E40" s="3">
-        <v>93.374660000000006</v>
+        <v>97.531289999999998</v>
       </c>
       <c r="F40" s="3">
-        <v>4.3581420000000003E-2</v>
+        <v>4.5595579999999997E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99811450000000002</v>
+        <v>0.99821230000000005</v>
       </c>
       <c r="H40" s="3">
-        <v>6.0900210000000003E-2</v>
+        <v>6.3397389999999998E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.89476940000000005</v>
+        <v>1.100044</v>
       </c>
       <c r="J40" s="3">
-        <v>20.67822</v>
+        <v>20.142610000000001</v>
       </c>
       <c r="K40" s="3">
-        <v>3.819849</v>
+        <v>8.8221469999999993</v>
       </c>
       <c r="L40" s="3">
-        <v>9.436515</v>
+        <v>20.97747</v>
       </c>
       <c r="M40" s="3">
-        <v>2.6856209999999998</v>
+        <v>6.2025870000000003</v>
       </c>
       <c r="N40" s="3">
-        <v>0.44279020000000002</v>
+        <v>0.35361150000000002</v>
       </c>
       <c r="O40" s="3">
-        <v>996.26149999999996</v>
+        <v>996.24580000000003</v>
       </c>
       <c r="P40" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q40" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45131.462824074071</v>
+        <v>45131.463067129633</v>
       </c>
       <c r="B41" s="3">
-        <v>9.5996450000000006</v>
+        <v>9.46279</v>
       </c>
       <c r="C41" s="3">
-        <v>5.5383190000000004</v>
+        <v>6.1045749999999996</v>
       </c>
       <c r="D41" s="3">
-        <v>85.67989</v>
+        <v>88.503630000000001</v>
       </c>
       <c r="E41" s="3">
-        <v>93.406819999999996</v>
+        <v>97.56662</v>
       </c>
       <c r="F41" s="3">
-        <v>4.359702E-2</v>
+        <v>4.5612689999999997E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99811649999999996</v>
+        <v>0.99821300000000002</v>
       </c>
       <c r="H41" s="3">
-        <v>6.0932359999999998E-2</v>
+        <v>6.3417959999999995E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>0.90197349999999998</v>
+        <v>1.1008089999999999</v>
       </c>
       <c r="J41" s="3">
-        <v>20.669319999999999</v>
+        <v>20.13852</v>
       </c>
       <c r="K41" s="3">
-        <v>3.8875679999999999</v>
+        <v>8.8561200000000007</v>
       </c>
       <c r="L41" s="3">
-        <v>9.5926880000000008</v>
+        <v>21.055900000000001</v>
       </c>
       <c r="M41" s="3">
-        <v>2.7332320000000001</v>
+        <v>6.2264720000000002</v>
       </c>
       <c r="N41" s="3">
-        <v>0.44163720000000001</v>
+        <v>0.35251650000000001</v>
       </c>
       <c r="O41" s="3">
-        <v>996.26089999999999</v>
+        <v>996.24739999999997</v>
       </c>
       <c r="P41" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q41" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45131.462835648148</v>
+        <v>45131.463078703702</v>
       </c>
       <c r="B42" s="3">
-        <v>9.5947689999999994</v>
+        <v>9.6199600000000007</v>
       </c>
       <c r="C42" s="3">
-        <v>5.5680540000000001</v>
+        <v>6.2786540000000004</v>
       </c>
       <c r="D42" s="3">
-        <v>86.317580000000007</v>
+        <v>86.801019999999994</v>
       </c>
       <c r="E42" s="3">
-        <v>94.358540000000005</v>
+        <v>95.921509999999998</v>
       </c>
       <c r="F42" s="3">
-        <v>4.4058340000000001E-2</v>
+        <v>4.4814060000000003E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99812959999999995</v>
+        <v>0.99828349999999999</v>
       </c>
       <c r="H42" s="3">
-        <v>6.1361529999999997E-2</v>
+        <v>6.2234600000000001E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>0.99782530000000003</v>
+        <v>1.135591</v>
       </c>
       <c r="J42" s="3">
-        <v>20.59543</v>
+        <v>20.02262</v>
       </c>
       <c r="K42" s="3">
-        <v>4.4243389999999998</v>
+        <v>9.7902050000000003</v>
       </c>
       <c r="L42" s="3">
-        <v>10.833080000000001</v>
+        <v>23.210699999999999</v>
       </c>
       <c r="M42" s="3">
-        <v>3.1106199999999999</v>
+        <v>6.8831990000000003</v>
       </c>
       <c r="N42" s="3">
-        <v>0.4262608</v>
+        <v>0.35961890000000002</v>
       </c>
       <c r="O42" s="3">
-        <v>996.24369999999999</v>
+        <v>996.24839999999995</v>
       </c>
       <c r="P42" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q42" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45131.462847222225</v>
+        <v>45131.463090277779</v>
       </c>
       <c r="B43" s="3">
-        <v>9.591469</v>
+        <v>9.6277749999999997</v>
       </c>
       <c r="C43" s="3">
-        <v>5.5771569999999997</v>
+        <v>6.2906409999999999</v>
       </c>
       <c r="D43" s="3">
-        <v>86.357529999999997</v>
+        <v>86.713239999999999</v>
       </c>
       <c r="E43" s="3">
-        <v>94.419079999999994</v>
+        <v>95.839039999999997</v>
       </c>
       <c r="F43" s="3">
-        <v>4.4087689999999999E-2</v>
+        <v>4.4774010000000003E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99813099999999999</v>
+        <v>0.99828760000000005</v>
       </c>
       <c r="H43" s="3">
-        <v>6.1394749999999998E-2</v>
+        <v>6.217462E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>1.0053719999999999</v>
+        <v>1.1375219999999999</v>
       </c>
       <c r="J43" s="3">
-        <v>20.589970000000001</v>
+        <v>20.014880000000002</v>
       </c>
       <c r="K43" s="3">
-        <v>4.4782739999999999</v>
+        <v>9.8523709999999998</v>
       </c>
       <c r="L43" s="3">
-        <v>10.957610000000001</v>
+        <v>23.354099999999999</v>
       </c>
       <c r="M43" s="3">
-        <v>3.1485400000000001</v>
+        <v>6.9269059999999998</v>
       </c>
       <c r="N43" s="3">
-        <v>0.42522650000000001</v>
+        <v>0.35950159999999998</v>
       </c>
       <c r="O43" s="3">
-        <v>996.2423</v>
+        <v>996.2491</v>
       </c>
       <c r="P43" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q43" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45131.462858796294</v>
+        <v>45131.463101851848</v>
       </c>
       <c r="B44" s="3">
-        <v>9.5881699999999999</v>
+        <v>9.6355900000000005</v>
       </c>
       <c r="C44" s="3">
-        <v>5.5862600000000002</v>
+        <v>6.3026280000000003</v>
       </c>
       <c r="D44" s="3">
-        <v>86.397480000000002</v>
+        <v>86.625470000000007</v>
       </c>
       <c r="E44" s="3">
-        <v>94.479619999999997</v>
+        <v>95.75658</v>
       </c>
       <c r="F44" s="3">
-        <v>4.4117030000000002E-2</v>
+        <v>4.4733969999999998E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99813240000000003</v>
+        <v>0.99829159999999995</v>
       </c>
       <c r="H44" s="3">
-        <v>6.1427969999999998E-2</v>
+        <v>6.2114639999999999E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>1.0129189999999999</v>
+        <v>1.139454</v>
       </c>
       <c r="J44" s="3">
-        <v>20.584510000000002</v>
+        <v>20.00714</v>
       </c>
       <c r="K44" s="3">
-        <v>4.5322089999999999</v>
+        <v>9.914536</v>
       </c>
       <c r="L44" s="3">
-        <v>11.082140000000001</v>
+        <v>23.497509999999998</v>
       </c>
       <c r="M44" s="3">
-        <v>3.1864599999999998</v>
+        <v>6.9706130000000002</v>
       </c>
       <c r="N44" s="3">
-        <v>0.42419220000000002</v>
+        <v>0.35938429999999999</v>
       </c>
       <c r="O44" s="3">
-        <v>996.24090000000001</v>
+        <v>996.24990000000003</v>
       </c>
       <c r="P44" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q44" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45131.462870370371</v>
+        <v>45131.463113425925</v>
       </c>
       <c r="B45" s="3">
-        <v>9.7076200000000004</v>
+        <v>9.6434049999999996</v>
       </c>
       <c r="C45" s="3">
-        <v>5.674474</v>
+        <v>6.3146149999999999</v>
       </c>
       <c r="D45" s="3">
-        <v>86.438689999999994</v>
+        <v>86.537700000000001</v>
       </c>
       <c r="E45" s="3">
-        <v>94.666929999999994</v>
+        <v>95.674099999999996</v>
       </c>
       <c r="F45" s="3">
-        <v>4.4207629999999998E-2</v>
+        <v>4.4693919999999998E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99814709999999995</v>
+        <v>0.99829570000000001</v>
       </c>
       <c r="H45" s="3">
-        <v>6.1542630000000001E-2</v>
+        <v>6.2054669999999999E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>1.078983</v>
+        <v>1.1413850000000001</v>
       </c>
       <c r="J45" s="3">
-        <v>20.457370000000001</v>
+        <v>19.999389999999998</v>
       </c>
       <c r="K45" s="3">
-        <v>4.938771</v>
+        <v>9.9767030000000005</v>
       </c>
       <c r="L45" s="3">
-        <v>12.01881</v>
+        <v>23.640910000000002</v>
       </c>
       <c r="M45" s="3">
-        <v>3.4723009999999999</v>
+        <v>7.0143199999999997</v>
       </c>
       <c r="N45" s="3">
-        <v>0.41611090000000001</v>
+        <v>0.359267</v>
       </c>
       <c r="O45" s="3">
-        <v>996.19830000000002</v>
+        <v>996.25070000000005</v>
       </c>
       <c r="P45" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q45" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45131.462881944448</v>
+        <v>45131.463125000002</v>
       </c>
       <c r="B46" s="3">
-        <v>9.7143289999999993</v>
+        <v>9.6457569999999997</v>
       </c>
       <c r="C46" s="3">
-        <v>5.6799790000000003</v>
+        <v>6.1730879999999999</v>
       </c>
       <c r="D46" s="3">
-        <v>86.455060000000003</v>
+        <v>85.231049999999996</v>
       </c>
       <c r="E46" s="3">
-        <v>94.698459999999997</v>
+        <v>95.188609999999997</v>
       </c>
       <c r="F46" s="3">
-        <v>4.4222900000000002E-2</v>
+        <v>4.4454800000000003E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99814820000000004</v>
+        <v>0.99834290000000003</v>
       </c>
       <c r="H46" s="3">
-        <v>6.1558429999999997E-2</v>
+        <v>6.1859509999999999E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>1.084803</v>
+        <v>1.3176349999999999</v>
       </c>
       <c r="J46" s="3">
-        <v>20.44857</v>
+        <v>19.76315</v>
       </c>
       <c r="K46" s="3">
-        <v>4.9732149999999997</v>
+        <v>10.34416</v>
       </c>
       <c r="L46" s="3">
-        <v>12.09825</v>
+        <v>24.488430000000001</v>
       </c>
       <c r="M46" s="3">
-        <v>3.496518</v>
+        <v>7.2726689999999996</v>
       </c>
       <c r="N46" s="3">
-        <v>0.4153173</v>
+        <v>0.34389979999999998</v>
       </c>
       <c r="O46" s="3">
-        <v>996.19550000000004</v>
+        <v>996.24969999999996</v>
       </c>
       <c r="P46" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q46" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45131.462893518517</v>
+        <v>45131.463136574072</v>
       </c>
       <c r="B47" s="3">
-        <v>9.7210370000000008</v>
+        <v>9.6497100000000007</v>
       </c>
       <c r="C47" s="3">
-        <v>5.6854839999999998</v>
+        <v>6.17028</v>
       </c>
       <c r="D47" s="3">
-        <v>86.471419999999995</v>
+        <v>85.123019999999997</v>
       </c>
       <c r="E47" s="3">
-        <v>94.73</v>
+        <v>95.123840000000001</v>
       </c>
       <c r="F47" s="3">
-        <v>4.4238180000000002E-2</v>
+        <v>4.4423190000000001E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99814930000000002</v>
+        <v>0.99834699999999998</v>
       </c>
       <c r="H47" s="3">
-        <v>6.1574240000000002E-2</v>
+        <v>6.1820710000000001E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>1.090624</v>
+        <v>1.3274520000000001</v>
       </c>
       <c r="J47" s="3">
-        <v>20.43976</v>
+        <v>19.74823</v>
       </c>
       <c r="K47" s="3">
-        <v>5.0076580000000002</v>
+        <v>10.38632</v>
       </c>
       <c r="L47" s="3">
-        <v>12.177680000000001</v>
+        <v>24.58567</v>
       </c>
       <c r="M47" s="3">
-        <v>3.520734</v>
+        <v>7.3023069999999999</v>
       </c>
       <c r="N47" s="3">
-        <v>0.41452369999999999</v>
+        <v>0.34327210000000002</v>
       </c>
       <c r="O47" s="3">
-        <v>996.19269999999995</v>
+        <v>996.24969999999996</v>
       </c>
       <c r="P47" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q47" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45131.462905092594</v>
+        <v>45131.463148148148</v>
       </c>
       <c r="B48" s="3">
-        <v>9.5967450000000003</v>
+        <v>9.6536639999999991</v>
       </c>
       <c r="C48" s="3">
-        <v>5.7595869999999998</v>
+        <v>6.1674720000000001</v>
       </c>
       <c r="D48" s="3">
-        <v>86.637280000000004</v>
+        <v>85.014989999999997</v>
       </c>
       <c r="E48" s="3">
-        <v>95.301100000000005</v>
+        <v>95.059070000000006</v>
       </c>
       <c r="F48" s="3">
-        <v>4.4514900000000003E-2</v>
+        <v>4.4391569999999998E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99816579999999999</v>
+        <v>0.99835119999999999</v>
       </c>
       <c r="H48" s="3">
-        <v>6.1945710000000001E-2</v>
+        <v>6.1781910000000002E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>1.060098</v>
+        <v>1.33727</v>
       </c>
       <c r="J48" s="3">
-        <v>20.407260000000001</v>
+        <v>19.733309999999999</v>
       </c>
       <c r="K48" s="3">
-        <v>5.8861520000000001</v>
+        <v>10.428470000000001</v>
       </c>
       <c r="L48" s="3">
-        <v>14.20007</v>
+        <v>24.68291</v>
       </c>
       <c r="M48" s="3">
-        <v>4.1383770000000002</v>
+        <v>7.3319450000000002</v>
       </c>
       <c r="N48" s="3">
-        <v>0.39912989999999998</v>
+        <v>0.34264440000000002</v>
       </c>
       <c r="O48" s="3">
-        <v>996.25070000000005</v>
+        <v>996.24969999999996</v>
       </c>
       <c r="P48" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q48" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45131.462916666664</v>
+        <v>45131.463159722225</v>
       </c>
       <c r="B49" s="3">
-        <v>9.5924840000000007</v>
+        <v>9.5506689999999992</v>
       </c>
       <c r="C49" s="3">
-        <v>5.7657569999999998</v>
+        <v>6.503304</v>
       </c>
       <c r="D49" s="3">
-        <v>86.647090000000006</v>
+        <v>83.975790000000003</v>
       </c>
       <c r="E49" s="3">
-        <v>95.336759999999998</v>
+        <v>94.495549999999994</v>
       </c>
       <c r="F49" s="3">
-        <v>4.4532179999999998E-2</v>
+        <v>4.4115330000000001E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99816700000000003</v>
+        <v>0.9984847</v>
       </c>
       <c r="H49" s="3">
-        <v>6.19689E-2</v>
+        <v>6.1284980000000003E-2</v>
       </c>
       <c r="I49" s="3">
-        <v>1.05983</v>
+        <v>1.2014069999999999</v>
       </c>
       <c r="J49" s="3">
-        <v>20.40259</v>
+        <v>19.1982</v>
       </c>
       <c r="K49" s="3">
-        <v>5.9443929999999998</v>
+        <v>11.513859999999999</v>
       </c>
       <c r="L49" s="3">
-        <v>14.334160000000001</v>
+        <v>27.18657</v>
       </c>
       <c r="M49" s="3">
-        <v>4.1793240000000003</v>
+        <v>8.0950500000000005</v>
       </c>
       <c r="N49" s="3">
-        <v>0.39809250000000002</v>
+        <v>0.33452539999999997</v>
       </c>
       <c r="O49" s="3">
-        <v>996.25300000000004</v>
+        <v>996.26729999999998</v>
       </c>
       <c r="P49" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q49" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45131.46292824074</v>
+        <v>45131.463171296295</v>
       </c>
       <c r="B50" s="3">
-        <v>9.5882229999999993</v>
+        <v>9.5457730000000005</v>
       </c>
       <c r="C50" s="3">
-        <v>5.7719259999999997</v>
+        <v>6.5175850000000004</v>
       </c>
       <c r="D50" s="3">
-        <v>86.656909999999996</v>
+        <v>83.89188</v>
       </c>
       <c r="E50" s="3">
-        <v>95.372429999999994</v>
+        <v>94.453739999999996</v>
       </c>
       <c r="F50" s="3">
-        <v>4.4549449999999997E-2</v>
+        <v>4.409482E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99816830000000001</v>
+        <v>0.99849250000000001</v>
       </c>
       <c r="H50" s="3">
-        <v>6.1992079999999998E-2</v>
+        <v>6.125361E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>1.0595619999999999</v>
+        <v>1.198439</v>
       </c>
       <c r="J50" s="3">
-        <v>20.39791</v>
+        <v>19.165749999999999</v>
       </c>
       <c r="K50" s="3">
-        <v>6.0026339999999996</v>
+        <v>11.57874</v>
       </c>
       <c r="L50" s="3">
-        <v>14.468249999999999</v>
+        <v>27.336210000000001</v>
       </c>
       <c r="M50" s="3">
-        <v>4.2202719999999996</v>
+        <v>8.1406609999999997</v>
       </c>
       <c r="N50" s="3">
-        <v>0.3970552</v>
+        <v>0.33377879999999999</v>
       </c>
       <c r="O50" s="3">
-        <v>996.25530000000003</v>
+        <v>996.2681</v>
       </c>
       <c r="P50" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q50" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45131.462939814817</v>
+        <v>45131.463182870371</v>
       </c>
       <c r="B51" s="3">
-        <v>9.5621679999999998</v>
+        <v>9.5408760000000008</v>
       </c>
       <c r="C51" s="3">
-        <v>5.9132800000000003</v>
+        <v>6.5318659999999999</v>
       </c>
       <c r="D51" s="3">
-        <v>87.267930000000007</v>
+        <v>83.807969999999997</v>
       </c>
       <c r="E51" s="3">
-        <v>95.889080000000007</v>
+        <v>94.411929999999998</v>
       </c>
       <c r="F51" s="3">
-        <v>4.4799899999999997E-2</v>
+        <v>4.4074309999999998E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99817650000000002</v>
+        <v>0.99850050000000001</v>
       </c>
       <c r="H51" s="3">
-        <v>6.2327899999999999E-2</v>
+        <v>6.1222230000000002E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>1.0531010000000001</v>
+        <v>1.195471</v>
       </c>
       <c r="J51" s="3">
-        <v>20.351050000000001</v>
+        <v>19.133299999999998</v>
       </c>
       <c r="K51" s="3">
-        <v>6.463368</v>
+        <v>11.643610000000001</v>
       </c>
       <c r="L51" s="3">
-        <v>15.536049999999999</v>
+        <v>27.485859999999999</v>
       </c>
       <c r="M51" s="3">
-        <v>4.5442</v>
+        <v>8.1862739999999992</v>
       </c>
       <c r="N51" s="3">
-        <v>0.38900590000000002</v>
+        <v>0.3330322</v>
       </c>
       <c r="O51" s="3">
-        <v>996.24869999999999</v>
+        <v>996.26900000000001</v>
       </c>
       <c r="P51" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q51" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45131.462951388887</v>
+        <v>45131.463194444441</v>
       </c>
       <c r="B52" s="3">
-        <v>9.5578679999999991</v>
+        <v>9.4654100000000003</v>
       </c>
       <c r="C52" s="3">
-        <v>5.9228730000000001</v>
+        <v>6.5862400000000001</v>
       </c>
       <c r="D52" s="3">
-        <v>87.306079999999994</v>
+        <v>82.756500000000003</v>
       </c>
       <c r="E52" s="3">
-        <v>95.930959999999999</v>
+        <v>94.507239999999996</v>
       </c>
       <c r="F52" s="3">
-        <v>4.4820199999999998E-2</v>
+        <v>4.4112470000000001E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>0.99817730000000005</v>
+        <v>0.99854860000000001</v>
       </c>
       <c r="H52" s="3">
-        <v>6.235512E-2</v>
+        <v>6.1413019999999999E-2</v>
       </c>
       <c r="I52" s="3">
-        <v>1.0520309999999999</v>
+        <v>1.1957800000000001</v>
       </c>
       <c r="J52" s="3">
-        <v>20.347719999999999</v>
+        <v>18.749359999999999</v>
       </c>
       <c r="K52" s="3">
-        <v>6.5089009999999998</v>
+        <v>12.2652</v>
       </c>
       <c r="L52" s="3">
-        <v>15.64127</v>
+        <v>28.919889999999999</v>
       </c>
       <c r="M52" s="3">
-        <v>4.5762130000000001</v>
+        <v>8.6232970000000009</v>
       </c>
       <c r="N52" s="3">
-        <v>0.38820949999999999</v>
+        <v>0.32550079999999998</v>
       </c>
       <c r="O52" s="3">
-        <v>996.24959999999999</v>
+        <v>996.26919999999996</v>
       </c>
       <c r="P52" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q52" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45131.462962962964</v>
+        <v>45131.463206018518</v>
       </c>
       <c r="B53" s="3">
-        <v>9.5535669999999993</v>
+        <v>9.4595310000000001</v>
       </c>
       <c r="C53" s="3">
-        <v>5.9324659999999998</v>
+        <v>6.59612</v>
       </c>
       <c r="D53" s="3">
-        <v>87.344229999999996</v>
+        <v>82.679339999999996</v>
       </c>
       <c r="E53" s="3">
-        <v>95.972849999999994</v>
+        <v>94.498519999999999</v>
       </c>
       <c r="F53" s="3">
-        <v>4.4840499999999998E-2</v>
+        <v>4.4107769999999998E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.99817809999999996</v>
+        <v>0.99855400000000005</v>
       </c>
       <c r="H53" s="3">
-        <v>6.2382350000000003E-2</v>
+        <v>6.1411060000000003E-2</v>
       </c>
       <c r="I53" s="3">
-        <v>1.050962</v>
+        <v>1.193074</v>
       </c>
       <c r="J53" s="3">
-        <v>20.3444</v>
+        <v>18.718399999999999</v>
       </c>
       <c r="K53" s="3">
-        <v>6.5544339999999996</v>
+        <v>12.32047</v>
       </c>
       <c r="L53" s="3">
-        <v>15.74649</v>
+        <v>29.04739</v>
       </c>
       <c r="M53" s="3">
-        <v>4.6082260000000002</v>
+        <v>8.6621539999999992</v>
       </c>
       <c r="N53" s="3">
-        <v>0.38741310000000001</v>
+        <v>0.32494070000000003</v>
       </c>
       <c r="O53" s="3">
-        <v>996.25049999999999</v>
+        <v>996.26949999999999</v>
       </c>
       <c r="P53" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q53" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45131.46297453704</v>
+        <v>45131.463217592594</v>
       </c>
       <c r="B54" s="3">
-        <v>9.4812130000000003</v>
+        <v>9.4536499999999997</v>
       </c>
       <c r="C54" s="3">
-        <v>5.9975440000000004</v>
+        <v>6.606001</v>
       </c>
       <c r="D54" s="3">
-        <v>87.635800000000003</v>
+        <v>82.602180000000004</v>
       </c>
       <c r="E54" s="3">
-        <v>96.374340000000004</v>
+        <v>94.489800000000002</v>
       </c>
       <c r="F54" s="3">
-        <v>4.503505E-2</v>
+        <v>4.4103070000000001E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>0.99818739999999995</v>
+        <v>0.99855939999999999</v>
       </c>
       <c r="H54" s="3">
-        <v>6.2746150000000001E-2</v>
+        <v>6.1409100000000001E-2</v>
       </c>
       <c r="I54" s="3">
-        <v>1.059858</v>
+        <v>1.190369</v>
       </c>
       <c r="J54" s="3">
-        <v>20.264289999999999</v>
+        <v>18.687439999999999</v>
       </c>
       <c r="K54" s="3">
-        <v>7.6855320000000003</v>
+        <v>12.37574</v>
       </c>
       <c r="L54" s="3">
-        <v>18.35247</v>
+        <v>29.174880000000002</v>
       </c>
       <c r="M54" s="3">
-        <v>5.403467</v>
+        <v>8.7010120000000004</v>
       </c>
       <c r="N54" s="3">
-        <v>0.37198019999999998</v>
+        <v>0.32438040000000001</v>
       </c>
       <c r="O54" s="3">
-        <v>996.22450000000003</v>
+        <v>996.26990000000001</v>
       </c>
       <c r="P54" s="3">
-        <v>46.885699860000003</v>
+        <v>46.885732830000002</v>
       </c>
       <c r="Q54" s="3">
-        <v>-91.052320120000005</v>
+        <v>-91.052313069999997</v>
       </c>
       <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>45131.46298611111</v>
-      </c>
-      <c r="B55" s="3">
-        <v>9.4766340000000007</v>
-      </c>
-      <c r="C55" s="3">
-        <v>6.0043899999999999</v>
-      </c>
-      <c r="D55" s="3">
-        <v>87.665989999999994</v>
-      </c>
-      <c r="E55" s="3">
-        <v>96.408379999999994</v>
-      </c>
-      <c r="F55" s="3">
-        <v>4.5051540000000001E-2</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0.99818810000000002</v>
-      </c>
-      <c r="H55" s="3">
-        <v>6.277402E-2</v>
-      </c>
-      <c r="I55" s="3">
-        <v>1.0602259999999999</v>
-      </c>
-      <c r="J55" s="3">
-        <v>20.25874</v>
-      </c>
-      <c r="K55" s="3">
-        <v>7.7589550000000003</v>
-      </c>
-      <c r="L55" s="3">
-        <v>18.52178</v>
-      </c>
-      <c r="M55" s="3">
-        <v>5.4550890000000001</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0.37093920000000002</v>
-      </c>
-      <c r="O55" s="3">
-        <v>996.22280000000001</v>
-      </c>
-      <c r="P55" s="3">
-        <v>46.8857158</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>-91.052329159999999</v>
-      </c>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>45131.462997685187</v>
-      </c>
-      <c r="B56" s="3">
-        <v>9.4720560000000003</v>
-      </c>
-      <c r="C56" s="3">
-        <v>6.0112360000000002</v>
-      </c>
-      <c r="D56" s="3">
-        <v>87.696169999999995</v>
-      </c>
-      <c r="E56" s="3">
-        <v>96.442409999999995</v>
-      </c>
-      <c r="F56" s="3">
-        <v>4.5068030000000002E-2</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0.99818870000000004</v>
-      </c>
-      <c r="H56" s="3">
-        <v>6.2801889999999999E-2</v>
-      </c>
-      <c r="I56" s="3">
-        <v>1.0605929999999999</v>
-      </c>
-      <c r="J56" s="3">
-        <v>20.25319</v>
-      </c>
-      <c r="K56" s="3">
-        <v>7.8323770000000001</v>
-      </c>
-      <c r="L56" s="3">
-        <v>18.691079999999999</v>
-      </c>
-      <c r="M56" s="3">
-        <v>5.50671</v>
-      </c>
-      <c r="N56" s="3">
-        <v>0.36989810000000001</v>
-      </c>
-      <c r="O56" s="3">
-        <v>996.22119999999995</v>
-      </c>
-      <c r="P56" s="3">
-        <v>46.8857158</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>-91.052329159999999</v>
-      </c>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>45131.463009259256</v>
-      </c>
-      <c r="B57" s="3">
-        <v>9.5061009999999992</v>
-      </c>
-      <c r="C57" s="3">
-        <v>5.9917360000000004</v>
-      </c>
-      <c r="D57" s="3">
-        <v>88.075760000000002</v>
-      </c>
-      <c r="E57" s="3">
-        <v>96.999080000000006</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4.5337679999999998E-2</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0.99820299999999995</v>
-      </c>
-      <c r="H57" s="3">
-        <v>6.30637E-2</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1.0947450000000001</v>
-      </c>
-      <c r="J57" s="3">
-        <v>20.212569999999999</v>
-      </c>
-      <c r="K57" s="3">
-        <v>8.2378699999999991</v>
-      </c>
-      <c r="L57" s="3">
-        <v>19.629460000000002</v>
-      </c>
-      <c r="M57" s="3">
-        <v>5.7918000000000003</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0.37725439999999999</v>
-      </c>
-      <c r="O57" s="3">
-        <v>996.21230000000003</v>
-      </c>
-      <c r="P57" s="3">
-        <v>46.8857158</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>-91.052329159999999</v>
-      </c>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>45131.463020833333</v>
-      </c>
-      <c r="B58" s="3">
-        <v>9.506297</v>
-      </c>
-      <c r="C58" s="3">
-        <v>5.9921480000000003</v>
-      </c>
-      <c r="D58" s="3">
-        <v>88.103099999999998</v>
-      </c>
-      <c r="E58" s="3">
-        <v>97.038659999999993</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4.5356849999999997E-2</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0.99820399999999998</v>
-      </c>
-      <c r="H58" s="3">
-        <v>6.3086310000000007E-2</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1.096811</v>
-      </c>
-      <c r="J58" s="3">
-        <v>20.20853</v>
-      </c>
-      <c r="K58" s="3">
-        <v>8.2858730000000005</v>
-      </c>
-      <c r="L58" s="3">
-        <v>19.740279999999998</v>
-      </c>
-      <c r="M58" s="3">
-        <v>5.8255489999999996</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0.37730330000000001</v>
-      </c>
-      <c r="O58" s="3">
-        <v>996.21119999999996</v>
-      </c>
-      <c r="P58" s="3">
-        <v>46.88572826</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>-91.052328759999995</v>
-      </c>
-      <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>45131.46303240741</v>
-      </c>
-      <c r="B59" s="3">
-        <v>9.506494</v>
-      </c>
-      <c r="C59" s="3">
-        <v>5.9925600000000001</v>
-      </c>
-      <c r="D59" s="3">
-        <v>88.130430000000004</v>
-      </c>
-      <c r="E59" s="3">
-        <v>97.078230000000005</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4.5376029999999998E-2</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0.99820500000000001</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6.3108910000000004E-2</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1.098876</v>
-      </c>
-      <c r="J59" s="3">
-        <v>20.20448</v>
-      </c>
-      <c r="K59" s="3">
-        <v>8.3338769999999993</v>
-      </c>
-      <c r="L59" s="3">
-        <v>19.851099999999999</v>
-      </c>
-      <c r="M59" s="3">
-        <v>5.8592979999999999</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0.37735220000000003</v>
-      </c>
-      <c r="O59" s="3">
-        <v>996.21010000000001</v>
-      </c>
-      <c r="P59" s="3">
-        <v>46.88572826</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>-91.052328759999995</v>
-      </c>
-      <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>45131.463043981479</v>
-      </c>
-      <c r="B60" s="3">
-        <v>9.4658099999999994</v>
-      </c>
-      <c r="C60" s="3">
-        <v>6.0941280000000004</v>
-      </c>
-      <c r="D60" s="3">
-        <v>88.451359999999994</v>
-      </c>
-      <c r="E60" s="3">
-        <v>97.495959999999997</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4.5578460000000001E-2</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0.99821159999999998</v>
-      </c>
-      <c r="H60" s="3">
-        <v>6.337682E-2</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1.09928</v>
-      </c>
-      <c r="J60" s="3">
-        <v>20.146699999999999</v>
-      </c>
-      <c r="K60" s="3">
-        <v>8.7881750000000007</v>
-      </c>
-      <c r="L60" s="3">
-        <v>20.899039999999999</v>
-      </c>
-      <c r="M60" s="3">
-        <v>6.1787010000000002</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0.35470649999999998</v>
-      </c>
-      <c r="O60" s="3">
-        <v>996.2441</v>
-      </c>
-      <c r="P60" s="3">
-        <v>46.88572826</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>-91.052328759999995</v>
-      </c>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>45131.463055555556</v>
-      </c>
-      <c r="B61" s="3">
-        <v>9.4642999999999997</v>
-      </c>
-      <c r="C61" s="3">
-        <v>6.0993510000000004</v>
-      </c>
-      <c r="D61" s="3">
-        <v>88.477490000000003</v>
-      </c>
-      <c r="E61" s="3">
-        <v>97.531289999999998</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4.5595579999999997E-2</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0.99821230000000005</v>
-      </c>
-      <c r="H61" s="3">
-        <v>6.3397389999999998E-2</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1.100044</v>
-      </c>
-      <c r="J61" s="3">
-        <v>20.142610000000001</v>
-      </c>
-      <c r="K61" s="3">
-        <v>8.8221469999999993</v>
-      </c>
-      <c r="L61" s="3">
-        <v>20.97747</v>
-      </c>
-      <c r="M61" s="3">
-        <v>6.2025870000000003</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0.35361150000000002</v>
-      </c>
-      <c r="O61" s="3">
-        <v>996.24580000000003</v>
-      </c>
-      <c r="P61" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>45131.463067129633</v>
-      </c>
-      <c r="B62" s="3">
-        <v>9.46279</v>
-      </c>
-      <c r="C62" s="3">
-        <v>6.1045749999999996</v>
-      </c>
-      <c r="D62" s="3">
-        <v>88.503630000000001</v>
-      </c>
-      <c r="E62" s="3">
-        <v>97.56662</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4.5612689999999997E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0.99821300000000002</v>
-      </c>
-      <c r="H62" s="3">
-        <v>6.3417959999999995E-2</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1.1008089999999999</v>
-      </c>
-      <c r="J62" s="3">
-        <v>20.13852</v>
-      </c>
-      <c r="K62" s="3">
-        <v>8.8561200000000007</v>
-      </c>
-      <c r="L62" s="3">
-        <v>21.055900000000001</v>
-      </c>
-      <c r="M62" s="3">
-        <v>6.2264720000000002</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0.35251650000000001</v>
-      </c>
-      <c r="O62" s="3">
-        <v>996.24739999999997</v>
-      </c>
-      <c r="P62" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>45131.463078703702</v>
-      </c>
-      <c r="B63" s="3">
-        <v>9.6199600000000007</v>
-      </c>
-      <c r="C63" s="3">
-        <v>6.2786540000000004</v>
-      </c>
-      <c r="D63" s="3">
-        <v>86.801019999999994</v>
-      </c>
-      <c r="E63" s="3">
-        <v>95.921509999999998</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4.4814060000000003E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0.99828349999999999</v>
-      </c>
-      <c r="H63" s="3">
-        <v>6.2234600000000001E-2</v>
-      </c>
-      <c r="I63" s="3">
-        <v>1.135591</v>
-      </c>
-      <c r="J63" s="3">
-        <v>20.02262</v>
-      </c>
-      <c r="K63" s="3">
-        <v>9.7902050000000003</v>
-      </c>
-      <c r="L63" s="3">
-        <v>23.210699999999999</v>
-      </c>
-      <c r="M63" s="3">
-        <v>6.8831990000000003</v>
-      </c>
-      <c r="N63" s="3">
-        <v>0.35961890000000002</v>
-      </c>
-      <c r="O63" s="3">
-        <v>996.24839999999995</v>
-      </c>
-      <c r="P63" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>45131.463090277779</v>
-      </c>
-      <c r="B64" s="3">
-        <v>9.6277749999999997</v>
-      </c>
-      <c r="C64" s="3">
-        <v>6.2906409999999999</v>
-      </c>
-      <c r="D64" s="3">
-        <v>86.713239999999999</v>
-      </c>
-      <c r="E64" s="3">
-        <v>95.839039999999997</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.4774010000000003E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.99828760000000005</v>
-      </c>
-      <c r="H64" s="3">
-        <v>6.217462E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>1.1375219999999999</v>
-      </c>
-      <c r="J64" s="3">
-        <v>20.014880000000002</v>
-      </c>
-      <c r="K64" s="3">
-        <v>9.8523709999999998</v>
-      </c>
-      <c r="L64" s="3">
-        <v>23.354099999999999</v>
-      </c>
-      <c r="M64" s="3">
-        <v>6.9269059999999998</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0.35950159999999998</v>
-      </c>
-      <c r="O64" s="3">
-        <v>996.2491</v>
-      </c>
-      <c r="P64" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>45131.463101851848</v>
-      </c>
-      <c r="B65" s="3">
-        <v>9.6355900000000005</v>
-      </c>
-      <c r="C65" s="3">
-        <v>6.3026280000000003</v>
-      </c>
-      <c r="D65" s="3">
-        <v>86.625470000000007</v>
-      </c>
-      <c r="E65" s="3">
-        <v>95.75658</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4.4733969999999998E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.99829159999999995</v>
-      </c>
-      <c r="H65" s="3">
-        <v>6.2114639999999999E-2</v>
-      </c>
-      <c r="I65" s="3">
-        <v>1.139454</v>
-      </c>
-      <c r="J65" s="3">
-        <v>20.00714</v>
-      </c>
-      <c r="K65" s="3">
-        <v>9.914536</v>
-      </c>
-      <c r="L65" s="3">
-        <v>23.497509999999998</v>
-      </c>
-      <c r="M65" s="3">
-        <v>6.9706130000000002</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0.35938429999999999</v>
-      </c>
-      <c r="O65" s="3">
-        <v>996.24990000000003</v>
-      </c>
-      <c r="P65" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>45131.463113425925</v>
-      </c>
-      <c r="B66" s="3">
-        <v>9.6434049999999996</v>
-      </c>
-      <c r="C66" s="3">
-        <v>6.3146149999999999</v>
-      </c>
-      <c r="D66" s="3">
-        <v>86.537700000000001</v>
-      </c>
-      <c r="E66" s="3">
-        <v>95.674099999999996</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4.4693919999999998E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.99829570000000001</v>
-      </c>
-      <c r="H66" s="3">
-        <v>6.2054669999999999E-2</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1.1413850000000001</v>
-      </c>
-      <c r="J66" s="3">
-        <v>19.999389999999998</v>
-      </c>
-      <c r="K66" s="3">
-        <v>9.9767030000000005</v>
-      </c>
-      <c r="L66" s="3">
-        <v>23.640910000000002</v>
-      </c>
-      <c r="M66" s="3">
-        <v>7.0143199999999997</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0.359267</v>
-      </c>
-      <c r="O66" s="3">
-        <v>996.25070000000005</v>
-      </c>
-      <c r="P66" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>45131.463125000002</v>
-      </c>
-      <c r="B67" s="3">
-        <v>9.6457569999999997</v>
-      </c>
-      <c r="C67" s="3">
-        <v>6.1730879999999999</v>
-      </c>
-      <c r="D67" s="3">
-        <v>85.231049999999996</v>
-      </c>
-      <c r="E67" s="3">
-        <v>95.188609999999997</v>
-      </c>
-      <c r="F67" s="3">
-        <v>4.4454800000000003E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.99834290000000003</v>
-      </c>
-      <c r="H67" s="3">
-        <v>6.1859509999999999E-2</v>
-      </c>
-      <c r="I67" s="3">
-        <v>1.3176349999999999</v>
-      </c>
-      <c r="J67" s="3">
-        <v>19.76315</v>
-      </c>
-      <c r="K67" s="3">
-        <v>10.34416</v>
-      </c>
-      <c r="L67" s="3">
-        <v>24.488430000000001</v>
-      </c>
-      <c r="M67" s="3">
-        <v>7.2726689999999996</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0.34389979999999998</v>
-      </c>
-      <c r="O67" s="3">
-        <v>996.24969999999996</v>
-      </c>
-      <c r="P67" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>45131.463136574072</v>
-      </c>
-      <c r="B68" s="3">
-        <v>9.6497100000000007</v>
-      </c>
-      <c r="C68" s="3">
-        <v>6.17028</v>
-      </c>
-      <c r="D68" s="3">
-        <v>85.123019999999997</v>
-      </c>
-      <c r="E68" s="3">
-        <v>95.123840000000001</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4.4423190000000001E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.99834699999999998</v>
-      </c>
-      <c r="H68" s="3">
-        <v>6.1820710000000001E-2</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1.3274520000000001</v>
-      </c>
-      <c r="J68" s="3">
-        <v>19.74823</v>
-      </c>
-      <c r="K68" s="3">
-        <v>10.38632</v>
-      </c>
-      <c r="L68" s="3">
-        <v>24.58567</v>
-      </c>
-      <c r="M68" s="3">
-        <v>7.3023069999999999</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0.34327210000000002</v>
-      </c>
-      <c r="O68" s="3">
-        <v>996.24969999999996</v>
-      </c>
-      <c r="P68" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>45131.463148148148</v>
-      </c>
-      <c r="B69" s="3">
-        <v>9.6536639999999991</v>
-      </c>
-      <c r="C69" s="3">
-        <v>6.1674720000000001</v>
-      </c>
-      <c r="D69" s="3">
-        <v>85.014989999999997</v>
-      </c>
-      <c r="E69" s="3">
-        <v>95.059070000000006</v>
-      </c>
-      <c r="F69" s="3">
-        <v>4.4391569999999998E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.99835119999999999</v>
-      </c>
-      <c r="H69" s="3">
-        <v>6.1781910000000002E-2</v>
-      </c>
-      <c r="I69" s="3">
-        <v>1.33727</v>
-      </c>
-      <c r="J69" s="3">
-        <v>19.733309999999999</v>
-      </c>
-      <c r="K69" s="3">
-        <v>10.428470000000001</v>
-      </c>
-      <c r="L69" s="3">
-        <v>24.68291</v>
-      </c>
-      <c r="M69" s="3">
-        <v>7.3319450000000002</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0.34264440000000002</v>
-      </c>
-      <c r="O69" s="3">
-        <v>996.24969999999996</v>
-      </c>
-      <c r="P69" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>45131.463159722225</v>
-      </c>
-      <c r="B70" s="3">
-        <v>9.5506689999999992</v>
-      </c>
-      <c r="C70" s="3">
-        <v>6.503304</v>
-      </c>
-      <c r="D70" s="3">
-        <v>83.975790000000003</v>
-      </c>
-      <c r="E70" s="3">
-        <v>94.495549999999994</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4.4115330000000001E-2</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.9984847</v>
-      </c>
-      <c r="H70" s="3">
-        <v>6.1284980000000003E-2</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1.2014069999999999</v>
-      </c>
-      <c r="J70" s="3">
-        <v>19.1982</v>
-      </c>
-      <c r="K70" s="3">
-        <v>11.513859999999999</v>
-      </c>
-      <c r="L70" s="3">
-        <v>27.18657</v>
-      </c>
-      <c r="M70" s="3">
-        <v>8.0950500000000005</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0.33452539999999997</v>
-      </c>
-      <c r="O70" s="3">
-        <v>996.26729999999998</v>
-      </c>
-      <c r="P70" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>45131.463171296295</v>
-      </c>
-      <c r="B71" s="3">
-        <v>9.5457730000000005</v>
-      </c>
-      <c r="C71" s="3">
-        <v>6.5175850000000004</v>
-      </c>
-      <c r="D71" s="3">
-        <v>83.89188</v>
-      </c>
-      <c r="E71" s="3">
-        <v>94.453739999999996</v>
-      </c>
-      <c r="F71" s="3">
-        <v>4.409482E-2</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0.99849250000000001</v>
-      </c>
-      <c r="H71" s="3">
-        <v>6.125361E-2</v>
-      </c>
-      <c r="I71" s="3">
-        <v>1.198439</v>
-      </c>
-      <c r="J71" s="3">
-        <v>19.165749999999999</v>
-      </c>
-      <c r="K71" s="3">
-        <v>11.57874</v>
-      </c>
-      <c r="L71" s="3">
-        <v>27.336210000000001</v>
-      </c>
-      <c r="M71" s="3">
-        <v>8.1406609999999997</v>
-      </c>
-      <c r="N71" s="3">
-        <v>0.33377879999999999</v>
-      </c>
-      <c r="O71" s="3">
-        <v>996.2681</v>
-      </c>
-      <c r="P71" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>45131.463182870371</v>
-      </c>
-      <c r="B72" s="3">
-        <v>9.5408760000000008</v>
-      </c>
-      <c r="C72" s="3">
-        <v>6.5318659999999999</v>
-      </c>
-      <c r="D72" s="3">
-        <v>83.807969999999997</v>
-      </c>
-      <c r="E72" s="3">
-        <v>94.411929999999998</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4.4074309999999998E-2</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0.99850050000000001</v>
-      </c>
-      <c r="H72" s="3">
-        <v>6.1222230000000002E-2</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1.195471</v>
-      </c>
-      <c r="J72" s="3">
-        <v>19.133299999999998</v>
-      </c>
-      <c r="K72" s="3">
-        <v>11.643610000000001</v>
-      </c>
-      <c r="L72" s="3">
-        <v>27.485859999999999</v>
-      </c>
-      <c r="M72" s="3">
-        <v>8.1862739999999992</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0.3330322</v>
-      </c>
-      <c r="O72" s="3">
-        <v>996.26900000000001</v>
-      </c>
-      <c r="P72" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>45131.463194444441</v>
-      </c>
-      <c r="B73" s="3">
-        <v>9.4654100000000003</v>
-      </c>
-      <c r="C73" s="3">
-        <v>6.5862400000000001</v>
-      </c>
-      <c r="D73" s="3">
-        <v>82.756500000000003</v>
-      </c>
-      <c r="E73" s="3">
-        <v>94.507239999999996</v>
-      </c>
-      <c r="F73" s="3">
-        <v>4.4112470000000001E-2</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0.99854860000000001</v>
-      </c>
-      <c r="H73" s="3">
-        <v>6.1413019999999999E-2</v>
-      </c>
-      <c r="I73" s="3">
-        <v>1.1957800000000001</v>
-      </c>
-      <c r="J73" s="3">
-        <v>18.749359999999999</v>
-      </c>
-      <c r="K73" s="3">
-        <v>12.2652</v>
-      </c>
-      <c r="L73" s="3">
-        <v>28.919889999999999</v>
-      </c>
-      <c r="M73" s="3">
-        <v>8.6232970000000009</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0.32550079999999998</v>
-      </c>
-      <c r="O73" s="3">
-        <v>996.26919999999996</v>
-      </c>
-      <c r="P73" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>45131.463206018518</v>
-      </c>
-      <c r="B74" s="3">
-        <v>9.4595310000000001</v>
-      </c>
-      <c r="C74" s="3">
-        <v>6.59612</v>
-      </c>
-      <c r="D74" s="3">
-        <v>82.679339999999996</v>
-      </c>
-      <c r="E74" s="3">
-        <v>94.498519999999999</v>
-      </c>
-      <c r="F74" s="3">
-        <v>4.4107769999999998E-2</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0.99855400000000005</v>
-      </c>
-      <c r="H74" s="3">
-        <v>6.1411060000000003E-2</v>
-      </c>
-      <c r="I74" s="3">
-        <v>1.193074</v>
-      </c>
-      <c r="J74" s="3">
-        <v>18.718399999999999</v>
-      </c>
-      <c r="K74" s="3">
-        <v>12.32047</v>
-      </c>
-      <c r="L74" s="3">
-        <v>29.04739</v>
-      </c>
-      <c r="M74" s="3">
-        <v>8.6621539999999992</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0.32494070000000003</v>
-      </c>
-      <c r="O74" s="3">
-        <v>996.26949999999999</v>
-      </c>
-      <c r="P74" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>45131.463217592594</v>
-      </c>
-      <c r="B75" s="3">
-        <v>9.4536499999999997</v>
-      </c>
-      <c r="C75" s="3">
-        <v>6.606001</v>
-      </c>
-      <c r="D75" s="3">
-        <v>82.602180000000004</v>
-      </c>
-      <c r="E75" s="3">
-        <v>94.489800000000002</v>
-      </c>
-      <c r="F75" s="3">
-        <v>4.4103070000000001E-2</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0.99855939999999999</v>
-      </c>
-      <c r="H75" s="3">
-        <v>6.1409100000000001E-2</v>
-      </c>
-      <c r="I75" s="3">
-        <v>1.190369</v>
-      </c>
-      <c r="J75" s="3">
-        <v>18.687439999999999</v>
-      </c>
-      <c r="K75" s="3">
-        <v>12.37574</v>
-      </c>
-      <c r="L75" s="3">
-        <v>29.174880000000002</v>
-      </c>
-      <c r="M75" s="3">
-        <v>8.7010120000000004</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0.32438040000000001</v>
-      </c>
-      <c r="O75" s="3">
-        <v>996.26990000000001</v>
-      </c>
-      <c r="P75" s="3">
-        <v>46.885732830000002</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>-91.052313069999997</v>
-      </c>
-      <c r="R75" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
